--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna1-Epha1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna1-Epha1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H2">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I2">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J2">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.84030718500538</v>
+        <v>4.472365</v>
       </c>
       <c r="N2">
-        <v>3.84030718500538</v>
+        <v>13.417095</v>
       </c>
       <c r="O2">
-        <v>0.1816028790334963</v>
+        <v>0.1840876942178652</v>
       </c>
       <c r="P2">
-        <v>0.1816028790334963</v>
+        <v>0.2075728609309428</v>
       </c>
       <c r="Q2">
-        <v>74.65277144660439</v>
+        <v>91.44757419097999</v>
       </c>
       <c r="R2">
-        <v>74.65277144660439</v>
+        <v>823.02816771882</v>
       </c>
       <c r="S2">
-        <v>0.1579337423943529</v>
+        <v>0.160140565621782</v>
       </c>
       <c r="T2">
-        <v>0.1579337423943529</v>
+        <v>0.1820536237594518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H3">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I3">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J3">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.40129874661521</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N3">
-        <v>3.40129874661521</v>
+        <v>11.898589</v>
       </c>
       <c r="O3">
-        <v>0.1608427698831283</v>
+        <v>0.163253208943967</v>
       </c>
       <c r="P3">
-        <v>0.1608427698831283</v>
+        <v>0.1840803959256042</v>
       </c>
       <c r="Q3">
-        <v>66.11876751529488</v>
+        <v>81.09781590914265</v>
       </c>
       <c r="R3">
-        <v>66.11876751529488</v>
+        <v>729.8803431822839</v>
       </c>
       <c r="S3">
-        <v>0.1398793935421626</v>
+        <v>0.1420163435200477</v>
       </c>
       <c r="T3">
-        <v>0.1398793935421626</v>
+        <v>0.1614493483928043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H4">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I4">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J4">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.62588170278762</v>
+        <v>4.115150666666667</v>
       </c>
       <c r="N4">
-        <v>2.62588170278762</v>
+        <v>12.345452</v>
       </c>
       <c r="O4">
-        <v>0.1241743574809741</v>
+        <v>0.1693843408545093</v>
       </c>
       <c r="P4">
-        <v>0.1241743574809741</v>
+        <v>0.1909937129554221</v>
       </c>
       <c r="Q4">
-        <v>51.0452255927412</v>
+        <v>84.14352269930133</v>
       </c>
       <c r="R4">
-        <v>51.0452255927412</v>
+        <v>757.291704293712</v>
       </c>
       <c r="S4">
-        <v>0.1079901436076197</v>
+        <v>0.1473499044418006</v>
       </c>
       <c r="T4">
-        <v>0.1079901436076197</v>
+        <v>0.1675127345784145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H5">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I5">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J5">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.08207520992604</v>
+        <v>3.494784666666666</v>
       </c>
       <c r="N5">
-        <v>3.08207520992604</v>
+        <v>10.484354</v>
       </c>
       <c r="O5">
-        <v>0.1457471250492041</v>
+        <v>0.1438493618196675</v>
       </c>
       <c r="P5">
-        <v>0.1457471250492041</v>
+        <v>0.1622010841238564</v>
       </c>
       <c r="Q5">
-        <v>59.91329472971095</v>
+        <v>71.45874276506933</v>
       </c>
       <c r="R5">
-        <v>59.91329472971095</v>
+        <v>643.1286848856239</v>
       </c>
       <c r="S5">
-        <v>0.1267512333766077</v>
+        <v>0.1251366543755554</v>
       </c>
       <c r="T5">
-        <v>0.1267512333766077</v>
+        <v>0.1422599033901827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.4392708317941</v>
+        <v>20.447252</v>
       </c>
       <c r="H6">
-        <v>19.4392708317941</v>
+        <v>61.341756</v>
       </c>
       <c r="I6">
-        <v>0.8696654107847175</v>
+        <v>0.8699145605694745</v>
       </c>
       <c r="J6">
-        <v>0.8696654107847175</v>
+        <v>0.8770588936480435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.197167898282681</v>
+        <v>8.246256000000001</v>
       </c>
       <c r="N6">
-        <v>8.197167898282681</v>
+        <v>16.492512</v>
       </c>
       <c r="O6">
-        <v>0.3876328685531971</v>
+        <v>0.3394253941639908</v>
       </c>
       <c r="P6">
-        <v>0.3876328685531971</v>
+        <v>0.2551519460641745</v>
       </c>
       <c r="Q6">
-        <v>159.3469668284055</v>
+        <v>168.613274488512</v>
       </c>
       <c r="R6">
-        <v>159.3469668284055</v>
+        <v>1011.679646931072</v>
       </c>
       <c r="S6">
-        <v>0.3371108978639745</v>
+        <v>0.2952710926102887</v>
       </c>
       <c r="T6">
-        <v>0.3371108978639745</v>
+        <v>0.2237832835271901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.35469334796926</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H7">
-        <v>2.35469334796926</v>
+        <v>7.449742</v>
       </c>
       <c r="I7">
-        <v>0.105343218655323</v>
+        <v>0.105648084777455</v>
       </c>
       <c r="J7">
-        <v>0.105343218655323</v>
+        <v>0.1065157390747562</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.84030718500538</v>
+        <v>4.472365</v>
       </c>
       <c r="N7">
-        <v>3.84030718500538</v>
+        <v>13.417095</v>
       </c>
       <c r="O7">
-        <v>0.1816028790334963</v>
+        <v>0.1840876942178652</v>
       </c>
       <c r="P7">
-        <v>0.1816028790334963</v>
+        <v>0.2075728609309428</v>
       </c>
       <c r="Q7">
-        <v>9.042745782690723</v>
+        <v>11.10598845994333</v>
       </c>
       <c r="R7">
-        <v>9.042745782690723</v>
+        <v>99.95389613949</v>
       </c>
       <c r="S7">
-        <v>0.01913063179446177</v>
+        <v>0.01944851232521524</v>
       </c>
       <c r="T7">
-        <v>0.01913063179446177</v>
+        <v>0.02210977669392096</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.35469334796926</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H8">
-        <v>2.35469334796926</v>
+        <v>7.449742</v>
       </c>
       <c r="I8">
-        <v>0.105343218655323</v>
+        <v>0.105648084777455</v>
       </c>
       <c r="J8">
-        <v>0.105343218655323</v>
+        <v>0.1065157390747562</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.40129874661521</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N8">
-        <v>3.40129874661521</v>
+        <v>11.898589</v>
       </c>
       <c r="O8">
-        <v>0.1608427698831283</v>
+        <v>0.163253208943967</v>
       </c>
       <c r="P8">
-        <v>0.1608427698831283</v>
+        <v>0.1840803959256042</v>
       </c>
       <c r="Q8">
-        <v>8.009015533111016</v>
+        <v>9.849046468226444</v>
       </c>
       <c r="R8">
-        <v>8.009015533111016</v>
+        <v>88.641418214038</v>
       </c>
       <c r="S8">
-        <v>0.01694369507692618</v>
+        <v>0.0172473888587038</v>
       </c>
       <c r="T8">
-        <v>0.01694369507692618</v>
+        <v>0.01960745942118948</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.35469334796926</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H9">
-        <v>2.35469334796926</v>
+        <v>7.449742</v>
       </c>
       <c r="I9">
-        <v>0.105343218655323</v>
+        <v>0.105648084777455</v>
       </c>
       <c r="J9">
-        <v>0.105343218655323</v>
+        <v>0.1065157390747562</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.62588170278762</v>
+        <v>4.115150666666667</v>
       </c>
       <c r="N9">
-        <v>2.62588170278762</v>
+        <v>12.345452</v>
       </c>
       <c r="O9">
-        <v>0.1241743574809741</v>
+        <v>0.1693843408545093</v>
       </c>
       <c r="P9">
-        <v>0.1241743574809741</v>
+        <v>0.1909937129554221</v>
       </c>
       <c r="Q9">
-        <v>6.183146178108203</v>
+        <v>10.21893691926489</v>
       </c>
       <c r="R9">
-        <v>6.183146178108203</v>
+        <v>91.97043227338399</v>
       </c>
       <c r="S9">
-        <v>0.0130809264915025</v>
+        <v>0.01789513120257054</v>
       </c>
       <c r="T9">
-        <v>0.0130809264915025</v>
+        <v>0.02034383649407863</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.35469334796926</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H10">
-        <v>2.35469334796926</v>
+        <v>7.449742</v>
       </c>
       <c r="I10">
-        <v>0.105343218655323</v>
+        <v>0.105648084777455</v>
       </c>
       <c r="J10">
-        <v>0.105343218655323</v>
+        <v>0.1065157390747562</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.08207520992604</v>
+        <v>3.494784666666666</v>
       </c>
       <c r="N10">
-        <v>3.08207520992604</v>
+        <v>10.484354</v>
       </c>
       <c r="O10">
-        <v>0.1457471250492041</v>
+        <v>0.1438493618196675</v>
       </c>
       <c r="P10">
-        <v>0.1457471250492041</v>
+        <v>0.1622010841238564</v>
       </c>
       <c r="Q10">
-        <v>7.257341994753807</v>
+        <v>8.678414704074221</v>
       </c>
       <c r="R10">
-        <v>7.257341994753807</v>
+        <v>78.105732336668</v>
       </c>
       <c r="S10">
-        <v>0.01535347126244302</v>
+        <v>0.01519740957270703</v>
       </c>
       <c r="T10">
-        <v>0.01535347126244302</v>
+        <v>0.01727696835417928</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.35469334796926</v>
+        <v>2.483247333333333</v>
       </c>
       <c r="H11">
-        <v>2.35469334796926</v>
+        <v>7.449742</v>
       </c>
       <c r="I11">
-        <v>0.105343218655323</v>
+        <v>0.105648084777455</v>
       </c>
       <c r="J11">
-        <v>0.105343218655323</v>
+        <v>0.1065157390747562</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.197167898282681</v>
+        <v>8.246256000000001</v>
       </c>
       <c r="N11">
-        <v>8.197167898282681</v>
+        <v>16.492512</v>
       </c>
       <c r="O11">
-        <v>0.3876328685531971</v>
+        <v>0.3394253941639908</v>
       </c>
       <c r="P11">
-        <v>0.3876328685531971</v>
+        <v>0.2551519460641745</v>
       </c>
       <c r="Q11">
-        <v>19.30181672227339</v>
+        <v>20.477493221984</v>
       </c>
       <c r="R11">
-        <v>19.30181672227339</v>
+        <v>122.864959331904</v>
       </c>
       <c r="S11">
-        <v>0.04083449402998952</v>
+        <v>0.03585964281825838</v>
       </c>
       <c r="T11">
-        <v>0.04083449402998952</v>
+        <v>0.02717769811138789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.558621758147675</v>
+        <v>0.5743975</v>
       </c>
       <c r="H12">
-        <v>0.558621758147675</v>
+        <v>1.148795</v>
       </c>
       <c r="I12">
-        <v>0.02499137055995952</v>
+        <v>0.02443735465307048</v>
       </c>
       <c r="J12">
-        <v>0.02499137055995952</v>
+        <v>0.01642536727720028</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.84030718500538</v>
+        <v>4.472365</v>
       </c>
       <c r="N12">
-        <v>3.84030718500538</v>
+        <v>13.417095</v>
       </c>
       <c r="O12">
-        <v>0.1816028790334963</v>
+        <v>0.1840876942178652</v>
       </c>
       <c r="P12">
-        <v>0.1816028790334963</v>
+        <v>0.2075728609309428</v>
       </c>
       <c r="Q12">
-        <v>2.145279151514854</v>
+        <v>2.5689152750875</v>
       </c>
       <c r="R12">
-        <v>2.145279151514854</v>
+        <v>15.413491650525</v>
       </c>
       <c r="S12">
-        <v>0.004538504844681609</v>
+        <v>0.004498616270867966</v>
       </c>
       <c r="T12">
-        <v>0.004538504844681609</v>
+        <v>0.003409460477569952</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.558621758147675</v>
+        <v>0.5743975</v>
       </c>
       <c r="H13">
-        <v>0.558621758147675</v>
+        <v>1.148795</v>
       </c>
       <c r="I13">
-        <v>0.02499137055995952</v>
+        <v>0.02443735465307048</v>
       </c>
       <c r="J13">
-        <v>0.02499137055995952</v>
+        <v>0.01642536727720028</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.40129874661521</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N13">
-        <v>3.40129874661521</v>
+        <v>11.898589</v>
       </c>
       <c r="O13">
-        <v>0.1608427698831283</v>
+        <v>0.163253208943967</v>
       </c>
       <c r="P13">
-        <v>0.1608427698831283</v>
+        <v>0.1840803959256042</v>
       </c>
       <c r="Q13">
-        <v>1.900039485819672</v>
+        <v>2.278173258375833</v>
       </c>
       <c r="R13">
-        <v>1.900039485819672</v>
+        <v>13.669039550255</v>
       </c>
       <c r="S13">
-        <v>0.004019681264039556</v>
+        <v>0.00398947656521554</v>
       </c>
       <c r="T13">
-        <v>0.004019681264039556</v>
+        <v>0.003023588111610492</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.558621758147675</v>
+        <v>0.5743975</v>
       </c>
       <c r="H14">
-        <v>0.558621758147675</v>
+        <v>1.148795</v>
       </c>
       <c r="I14">
-        <v>0.02499137055995952</v>
+        <v>0.02443735465307048</v>
       </c>
       <c r="J14">
-        <v>0.02499137055995952</v>
+        <v>0.01642536727720028</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.62588170278762</v>
+        <v>4.115150666666667</v>
       </c>
       <c r="N14">
-        <v>2.62588170278762</v>
+        <v>12.345452</v>
       </c>
       <c r="O14">
-        <v>0.1241743574809741</v>
+        <v>0.1693843408545093</v>
       </c>
       <c r="P14">
-        <v>0.1241743574809741</v>
+        <v>0.1909937129554221</v>
       </c>
       <c r="Q14">
-        <v>1.466874653499031</v>
+        <v>2.363732255056667</v>
       </c>
       <c r="R14">
-        <v>1.466874653499031</v>
+        <v>14.18239353034</v>
       </c>
       <c r="S14">
-        <v>0.003103287381851905</v>
+        <v>0.004139305210138221</v>
       </c>
       <c r="T14">
-        <v>0.003103287381851905</v>
+        <v>0.003137141882928974</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.558621758147675</v>
+        <v>0.5743975</v>
       </c>
       <c r="H15">
-        <v>0.558621758147675</v>
+        <v>1.148795</v>
       </c>
       <c r="I15">
-        <v>0.02499137055995952</v>
+        <v>0.02443735465307048</v>
       </c>
       <c r="J15">
-        <v>0.02499137055995952</v>
+        <v>0.01642536727720028</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.08207520992604</v>
+        <v>3.494784666666666</v>
       </c>
       <c r="N15">
-        <v>3.08207520992604</v>
+        <v>10.484354</v>
       </c>
       <c r="O15">
-        <v>0.1457471250492041</v>
+        <v>0.1438493618196675</v>
       </c>
       <c r="P15">
-        <v>0.1457471250492041</v>
+        <v>0.1622010841238564</v>
       </c>
       <c r="Q15">
-        <v>1.721714272512249</v>
+        <v>2.007395575571667</v>
       </c>
       <c r="R15">
-        <v>1.721714272512249</v>
+        <v>12.04437345343</v>
       </c>
       <c r="S15">
-        <v>0.003642420410153419</v>
+        <v>0.003515297871405072</v>
       </c>
       <c r="T15">
-        <v>0.003642420410153419</v>
+        <v>0.002664212379494402</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.558621758147675</v>
+        <v>0.5743975</v>
       </c>
       <c r="H16">
-        <v>0.558621758147675</v>
+        <v>1.148795</v>
       </c>
       <c r="I16">
-        <v>0.02499137055995952</v>
+        <v>0.02443735465307048</v>
       </c>
       <c r="J16">
-        <v>0.02499137055995952</v>
+        <v>0.01642536727720028</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.197167898282681</v>
+        <v>8.246256000000001</v>
       </c>
       <c r="N16">
-        <v>8.197167898282681</v>
+        <v>16.492512</v>
       </c>
       <c r="O16">
-        <v>0.3876328685531971</v>
+        <v>0.3394253941639908</v>
       </c>
       <c r="P16">
-        <v>0.3876328685531971</v>
+        <v>0.2551519460641745</v>
       </c>
       <c r="Q16">
-        <v>4.579116343170353</v>
+        <v>4.736628830760001</v>
       </c>
       <c r="R16">
-        <v>4.579116343170353</v>
+        <v>18.94651532304</v>
       </c>
       <c r="S16">
-        <v>0.009687476659233026</v>
+        <v>0.008294658735443685</v>
       </c>
       <c r="T16">
-        <v>0.009687476659233026</v>
+        <v>0.004190964425596463</v>
       </c>
     </row>
   </sheetData>
